--- a/biology/Zoologie/Ciconiidae/Ciconiidae.xlsx
+++ b/biology/Zoologie/Ciconiidae/Ciconiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ciconiiformes
 Les Ciconiidae sont une famille d'oiseaux échassiers constituée de 6 genres et 19 espèces de tantales, bec-ouverts, cigognes, jabirus et marabouts. C'est la seule famille de l'ordre des Ciconiiformes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ciconiiformes sont de grands échassiers (de 75 à 152 cm) aux pattes et bec longs ; leur cou est allongé et parfois épais.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites, à l'exception de l'Antarctique et de la majeure partie de l'Amérique du Nord, ces oiseaux présentent la plus grande diversité en région tropicale. Ils vivent dans une variété de zones humides, mais quelques espèces fréquentent les zones herbeuses et les forêts. La plupart des taxons fréquentent généralement les régions continentales chaudes.
 </t>
@@ -576,20 +592,129 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification de Sibley
-La classification de Sibley et Monroe basée sur des tests d'hybridation de l'ADN rapproche les Falconiformes, les Charadriiformes et d'autres ordres d'oiseaux marins, dans un ordre des Ciconiiformes (sensu lato) largement étendu.
-Classification récente
-Suivant les travaux de Hackett et al (2008), les Threskiornithidae (ibis et spatules) et les Ardeidae (hérons) appartiennent dorénavant à l'ordre des Pelecaniformes.
-Liste des genres
-Par ordre alphabétique :
+          <t>Classification de Sibley</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Sibley et Monroe basée sur des tests d'hybridation de l'ADN rapproche les Falconiformes, les Charadriiformes et d'autres ordres d'oiseaux marins, dans un ordre des Ciconiiformes (sensu lato) largement étendu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification récente</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant les travaux de Hackett et al (2008), les Threskiornithidae (ibis et spatules) et les Ardeidae (hérons) appartiennent dorénavant à l'ordre des Pelecaniformes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Par ordre alphabétique :
 Anastomus (2 espèces)
 Ciconia (7 espèces)
 Ephippiorhynchus (2 espèces)
 Jabiru (1 espèce)
 Leptoptilos (3 espèces)
-Mycteria (4 espèces)
-Liste des espèces existantes
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
+Mycteria (4 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces existantes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Mycteria americana – Tantale d'Amérique
 Mycteria cinerea – Tantale blanc
@@ -610,20 +735,130 @@
 Leptoptilos javanicus – Marabout chevelu
 Leptoptilos dubius – Marabout argala
 Leptoptilos crumenifer – Marabout d'Afrique
-Taxons éteints
-Genres éteints
-Ciconiopsis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxons éteints</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Genres éteints</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ciconiopsis
 Eociconia
 Grallavis
 Palaeoephippiorhynchus
 Prociconia
-Pelargosteon
-Espèces fossiles de genres actuels
-Plusieurs espèces du genre Ciconia
-Jabiru codorensis
-Cladogramme
-Selon une analyse génétique moléculaire publiée en avril 2023, la monophylie de tous les genres pourrait être prouvée. Cependant, les tribus introduites par Kahl ne se sont pas avérées monophylétiques[2].
-Les relations familiales selon Corrêa de Sousa et al. (2023) sont présentés dans le cladogramme suivant[2] :
+Pelargosteon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxons éteints</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Espèces fossiles de genres actuels</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Plusieurs espèces du genre Ciconia
+Jabiru codorensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ciconiidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciconiidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une analyse génétique moléculaire publiée en avril 2023, la monophylie de tous les genres pourrait être prouvée. Cependant, les tribus introduites par Kahl ne se sont pas avérées monophylétiques.
+Les relations familiales selon Corrêa de Sousa et al. (2023) sont présentés dans le cladogramme suivant :
 </t>
         </is>
       </c>
